--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Rarres2-Ccrl2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Ccrl2</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H2">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I2">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J2">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.221622531351</v>
+        <v>169.8267096666667</v>
       </c>
       <c r="N2">
-        <v>14.221622531351</v>
+        <v>509.480129</v>
       </c>
       <c r="O2">
-        <v>0.249349491644118</v>
+        <v>0.7951622771939805</v>
       </c>
       <c r="P2">
-        <v>0.249349491644118</v>
+        <v>0.7951622771939802</v>
       </c>
       <c r="Q2">
-        <v>588.7697450804853</v>
+        <v>153.93432617606</v>
       </c>
       <c r="R2">
-        <v>588.7697450804853</v>
+        <v>1385.40893558454</v>
       </c>
       <c r="S2">
-        <v>0.212869532460419</v>
+        <v>0.01385119936829075</v>
       </c>
       <c r="T2">
-        <v>0.212869532460419</v>
+        <v>0.01385119936829075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H3">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I3">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J3">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>41.9619605440658</v>
+        <v>0.30056</v>
       </c>
       <c r="N3">
-        <v>41.9619605440658</v>
+        <v>0.90168</v>
       </c>
       <c r="O3">
-        <v>0.7357243174600966</v>
+        <v>0.001407281425298274</v>
       </c>
       <c r="P3">
-        <v>0.7357243174600966</v>
+        <v>0.001407281425298273</v>
       </c>
       <c r="Q3">
-        <v>1737.209151638202</v>
+        <v>0.2724335952</v>
       </c>
       <c r="R3">
-        <v>1737.209151638202</v>
+        <v>2.4519023568</v>
       </c>
       <c r="S3">
-        <v>0.6280874705011096</v>
+        <v>2.451390885629694E-05</v>
       </c>
       <c r="T3">
-        <v>0.6280874705011096</v>
+        <v>2.451390885629694E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +646,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>41.3996183475244</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H4">
-        <v>41.3996183475244</v>
+        <v>2.71926</v>
       </c>
       <c r="I4">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J4">
-        <v>0.8536994844338214</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.851313757854843</v>
+        <v>42.54352433333333</v>
       </c>
       <c r="N4">
-        <v>0.851313757854843</v>
+        <v>127.630573</v>
       </c>
       <c r="O4">
-        <v>0.01492619089578547</v>
+        <v>0.1991972037564051</v>
       </c>
       <c r="P4">
-        <v>0.01492619089578547</v>
+        <v>0.1991972037564051</v>
       </c>
       <c r="Q4">
-        <v>35.2440646691873</v>
+        <v>38.56230132622</v>
       </c>
       <c r="R4">
-        <v>35.2440646691873</v>
+        <v>347.06071193598</v>
       </c>
       <c r="S4">
-        <v>0.01274248147229286</v>
+        <v>0.003469883144573411</v>
       </c>
       <c r="T4">
-        <v>0.01274248147229286</v>
+        <v>0.00346988314457341</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>24</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>7.0947512783175</v>
+        <v>0.9064200000000001</v>
       </c>
       <c r="H5">
-        <v>7.0947512783175</v>
+        <v>2.71926</v>
       </c>
       <c r="I5">
-        <v>0.1463005155661786</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="J5">
-        <v>0.1463005155661786</v>
+        <v>0.01741933661286065</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.221622531351</v>
+        <v>0.9041133333333334</v>
       </c>
       <c r="N5">
-        <v>14.221622531351</v>
+        <v>2.71234</v>
       </c>
       <c r="O5">
-        <v>0.249349491644118</v>
+        <v>0.004233237624316298</v>
       </c>
       <c r="P5">
-        <v>0.249349491644118</v>
+        <v>0.004233237624316297</v>
       </c>
       <c r="Q5">
-        <v>100.8988746340515</v>
+        <v>0.8195064076000002</v>
       </c>
       <c r="R5">
-        <v>100.8988746340515</v>
+        <v>7.375557668400001</v>
       </c>
       <c r="S5">
-        <v>0.036479959183699</v>
+        <v>7.374019114019214E-05</v>
       </c>
       <c r="T5">
-        <v>0.036479959183699</v>
+        <v>7.374019114019213E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.0947512783175</v>
+        <v>42.58841866666666</v>
       </c>
       <c r="H6">
-        <v>7.0947512783175</v>
+        <v>127.765256</v>
       </c>
       <c r="I6">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909583</v>
       </c>
       <c r="J6">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909585</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>41.9619605440658</v>
+        <v>169.8267096666667</v>
       </c>
       <c r="N6">
-        <v>41.9619605440658</v>
+        <v>509.480129</v>
       </c>
       <c r="O6">
-        <v>0.7357243174600966</v>
+        <v>0.7951622771939805</v>
       </c>
       <c r="P6">
-        <v>0.7357243174600966</v>
+        <v>0.7951622771939802</v>
       </c>
       <c r="Q6">
-        <v>297.7096732107194</v>
+        <v>7232.651012066446</v>
       </c>
       <c r="R6">
-        <v>297.7096732107194</v>
+        <v>65093.85910859802</v>
       </c>
       <c r="S6">
-        <v>0.107636846958987</v>
+        <v>0.650802804144034</v>
       </c>
       <c r="T6">
-        <v>0.107636846958987</v>
+        <v>0.6508028041440339</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,433 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.0947512783175</v>
+        <v>42.58841866666666</v>
       </c>
       <c r="H7">
-        <v>7.0947512783175</v>
+        <v>127.765256</v>
       </c>
       <c r="I7">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909583</v>
       </c>
       <c r="J7">
-        <v>0.1463005155661786</v>
+        <v>0.8184528149909585</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.851313757854843</v>
+        <v>0.30056</v>
       </c>
       <c r="N7">
-        <v>0.851313757854843</v>
+        <v>0.90168</v>
       </c>
       <c r="O7">
-        <v>0.01492619089578547</v>
+        <v>0.001407281425298274</v>
       </c>
       <c r="P7">
-        <v>0.01492619089578547</v>
+        <v>0.001407281425298273</v>
       </c>
       <c r="Q7">
-        <v>6.039859371789922</v>
+        <v>12.80037511445333</v>
       </c>
       <c r="R7">
-        <v>6.039859371789922</v>
+        <v>115.20337603008</v>
       </c>
       <c r="S7">
-        <v>0.002183709423492616</v>
+        <v>0.00115179344401986</v>
       </c>
       <c r="T7">
-        <v>0.002183709423492616</v>
+        <v>0.00115179344401986</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>42.58841866666666</v>
+      </c>
+      <c r="H8">
+        <v>127.765256</v>
+      </c>
+      <c r="I8">
+        <v>0.8184528149909583</v>
+      </c>
+      <c r="J8">
+        <v>0.8184528149909585</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>42.54352433333333</v>
+      </c>
+      <c r="N8">
+        <v>127.630573</v>
+      </c>
+      <c r="O8">
+        <v>0.1991972037564051</v>
+      </c>
+      <c r="P8">
+        <v>0.1991972037564051</v>
+      </c>
+      <c r="Q8">
+        <v>1811.86142586352</v>
+      </c>
+      <c r="R8">
+        <v>16306.75283277169</v>
+      </c>
+      <c r="S8">
+        <v>0.1630335121527572</v>
+      </c>
+      <c r="T8">
+        <v>0.1630335121527572</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>42.58841866666666</v>
+      </c>
+      <c r="H9">
+        <v>127.765256</v>
+      </c>
+      <c r="I9">
+        <v>0.8184528149909583</v>
+      </c>
+      <c r="J9">
+        <v>0.8184528149909585</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.9041133333333334</v>
+      </c>
+      <c r="N9">
+        <v>2.71234</v>
+      </c>
+      <c r="O9">
+        <v>0.004233237624316298</v>
+      </c>
+      <c r="P9">
+        <v>0.004233237624316297</v>
+      </c>
+      <c r="Q9">
+        <v>38.50475716211555</v>
+      </c>
+      <c r="R9">
+        <v>346.54281445904</v>
+      </c>
+      <c r="S9">
+        <v>0.003464705250147311</v>
+      </c>
+      <c r="T9">
+        <v>0.003464705250147311</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>8.540438</v>
+      </c>
+      <c r="H10">
+        <v>25.621314</v>
+      </c>
+      <c r="I10">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J10">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>169.8267096666667</v>
+      </c>
+      <c r="N10">
+        <v>509.480129</v>
+      </c>
+      <c r="O10">
+        <v>0.7951622771939805</v>
+      </c>
+      <c r="P10">
+        <v>0.7951622771939802</v>
+      </c>
+      <c r="Q10">
+        <v>1450.394484652167</v>
+      </c>
+      <c r="R10">
+        <v>13053.5503618695</v>
+      </c>
+      <c r="S10">
+        <v>0.1305082736816557</v>
+      </c>
+      <c r="T10">
+        <v>0.1305082736816556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>8.540438</v>
+      </c>
+      <c r="H11">
+        <v>25.621314</v>
+      </c>
+      <c r="I11">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J11">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.30056</v>
+      </c>
+      <c r="N11">
+        <v>0.90168</v>
+      </c>
+      <c r="O11">
+        <v>0.001407281425298274</v>
+      </c>
+      <c r="P11">
+        <v>0.001407281425298273</v>
+      </c>
+      <c r="Q11">
+        <v>2.56691404528</v>
+      </c>
+      <c r="R11">
+        <v>23.10222640752</v>
+      </c>
+      <c r="S11">
+        <v>0.0002309740724221166</v>
+      </c>
+      <c r="T11">
+        <v>0.0002309740724221165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>8.540438</v>
+      </c>
+      <c r="H12">
+        <v>25.621314</v>
+      </c>
+      <c r="I12">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J12">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>42.54352433333333</v>
+      </c>
+      <c r="N12">
+        <v>127.630573</v>
+      </c>
+      <c r="O12">
+        <v>0.1991972037564051</v>
+      </c>
+      <c r="P12">
+        <v>0.1991972037564051</v>
+      </c>
+      <c r="Q12">
+        <v>363.3403318703246</v>
+      </c>
+      <c r="R12">
+        <v>3270.062986832922</v>
+      </c>
+      <c r="S12">
+        <v>0.03269380845907443</v>
+      </c>
+      <c r="T12">
+        <v>0.03269380845907443</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>8.540438</v>
+      </c>
+      <c r="H13">
+        <v>25.621314</v>
+      </c>
+      <c r="I13">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="J13">
+        <v>0.164127848396181</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9041133333333334</v>
+      </c>
+      <c r="N13">
+        <v>2.71234</v>
+      </c>
+      <c r="O13">
+        <v>0.004233237624316298</v>
+      </c>
+      <c r="P13">
+        <v>0.004233237624316297</v>
+      </c>
+      <c r="Q13">
+        <v>7.721523868306668</v>
+      </c>
+      <c r="R13">
+        <v>69.49371481476</v>
+      </c>
+      <c r="S13">
+        <v>0.0006947921830287948</v>
+      </c>
+      <c r="T13">
+        <v>0.0006947921830287947</v>
       </c>
     </row>
   </sheetData>
